--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F829A9FB-00FB-451C-B4B2-19F3200DEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E999A78-7CDD-4D47-8514-977A38B42054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_29" sheetId="1" r:id="rId1"/>
+    <sheet name="C_39" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -322,6 +322,15 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -340,17 +349,8 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -425,11 +425,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:F29" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B4:F29" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -661,7 +661,7 @@
   <dimension ref="B2:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCCF0E5-2AA9-42E2-BAC7-EBAF7AAAAF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397A2CA-9577-4BA5-9943-6E6BAB192953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -234,7 +234,7 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -283,6 +283,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -290,12 +296,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G30" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G30" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B4:G30" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
@@ -671,7 +671,7 @@
         <v>12093</v>
       </c>
       <c r="F6" s="6">
-        <v>29999</v>
+        <v>30028.284</v>
       </c>
       <c r="G6" s="6">
         <v>5513</v>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397A2CA-9577-4BA5-9943-6E6BAB192953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A27D8-1509-433C-8DA3-44EA95476995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -53,18 +53,6 @@
     <t>Fuente: Para carretero: SICT. Subsecretaría de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Fuente: Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
-  </si>
-  <si>
-    <t>Fuente: Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
-  </si>
-  <si>
-    <t>Fuente: Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
-  </si>
-  <si>
-    <t>Nota: Para el concepto Marítimo, La información relativa al sector marítimo pasó a ser responsabilidad de la Secretaría de Marina (SEMAR). Derivado de la entrada en vigor del DECRETO por el que se reforman, adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
@@ -81,6 +69,24 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Nota: Para el concepto Marítimo, La información relativa al sector marítimo pasó a ser responsabilidad de la Secretaría de Marina (SEMAR). Derivado de la entrada en vigor del DECRETO por el que se reforman,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -239,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA38"/>
+  <dimension ref="B2:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -607,22 +616,22 @@
   <sheetData>
     <row r="2" spans="2:27" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>0</v>
@@ -1123,47 +1132,59 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" s="11"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="11"/>
+      <c r="B34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G38" s="3"/>
+      <c r="B38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A27D8-1509-433C-8DA3-44EA95476995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5128738D-623C-414D-BB70-8B83D09F7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Carretero</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Nota: Para el concepto Marítimo, La información relativa al sector marítimo pasó a ser responsabilidad de la Secretaría de Marina (SEMAR). Derivado de la entrada en vigor del DECRETO por el que se reforman,</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">   Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -248,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -292,12 +298,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -305,6 +305,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -360,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G30" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="B4:G30" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{E3284414-7784-42A7-B93C-31110510E934}" name="Trimestre" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
@@ -597,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA40"/>
+  <dimension ref="B2:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -647,21 +653,21 @@
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>2024</v>
       </c>
-      <c r="C5" s="15">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="4">
-        <v>12352</v>
-      </c>
-      <c r="F5" s="4">
-        <v>29339</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4412.5729999999994</v>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
+        <v>29400.232</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4134.469000000001</v>
       </c>
       <c r="AA5" t="e">
         <f>#REF!*1000</f>
@@ -669,522 +675,540 @@
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4">
+        <v>12352</v>
+      </c>
+      <c r="F6" s="4">
+        <v>29338.95</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4412.5729999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6">
         <v>12093</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>30028.284</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="6">
         <v>5513</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B7" s="15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B8" s="15">
         <v>2023</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>3784999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>11923</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>30149</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <v>4051</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B9" s="14">
         <v>2023</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C9" s="14">
         <v>3</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6">
+      <c r="D9" s="9"/>
+      <c r="E9" s="6">
         <v>11491</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>30062</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>3439</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B9" s="15">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B10" s="15">
         <v>2023</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="4">
+      <c r="D10" s="10"/>
+      <c r="E10" s="4">
         <v>11131</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>29115</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>3904</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B11" s="14">
         <v>2023</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6">
+      <c r="D11" s="9"/>
+      <c r="E11" s="6">
         <v>11293.484</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>29036.904999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>4827</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B11" s="15">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B12" s="15">
         <v>2022</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="15">
         <v>4</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>3674002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>11326.767</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>28941.035</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>4162</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B13" s="14">
         <v>2022</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6">
+      <c r="D13" s="9"/>
+      <c r="E13" s="6">
         <v>10598.224</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>27659.324000000001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>4817</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B14" s="15">
         <v>2022</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C14" s="15">
         <v>2</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4">
+      <c r="D14" s="10"/>
+      <c r="E14" s="4">
         <v>10271.178</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>26769.789000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>3334</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
         <v>2022</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C15" s="14">
         <v>1</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6">
+      <c r="D15" s="9"/>
+      <c r="E15" s="6">
         <v>8813.8080000000009</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>23485.47</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>2943.7710000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B15" s="15">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B16" s="15">
         <v>2021</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C16" s="15">
         <v>4</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>3147000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>9341.7420000000002</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>24337.715</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>2936</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="14">
         <v>2021</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6">
+      <c r="D17" s="9"/>
+      <c r="E17" s="6">
         <v>7824.0640000000012</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>21998.89</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>2493</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="15">
         <v>2021</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>2</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4">
+      <c r="D18" s="10"/>
+      <c r="E18" s="4">
         <v>7267.3310000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>20238.800999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>1958</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="14">
         <v>2021</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C19" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6">
+      <c r="D19" s="9"/>
+      <c r="E19" s="6">
         <v>5923.73</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>13427.895</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>1522</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="15">
         <v>2020</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C20" s="15">
         <v>4</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>2277000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>6811.7960000000003</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>13898.36</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>1315</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="14">
         <v>2020</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C21" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6">
+      <c r="D21" s="9"/>
+      <c r="E21" s="6">
         <v>5980.7389999999996</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>8730.8389999999999</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>907</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="15">
         <v>2020</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C22" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="4">
+      <c r="D22" s="10"/>
+      <c r="E22" s="4">
         <v>3855.326</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>2178.7280000000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="14">
         <v>2020</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="14">
         <v>1</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6">
+      <c r="D23" s="9"/>
+      <c r="E23" s="6">
         <v>13015.962</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>23271.69</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>4611</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="15">
         <v>2019</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C24" s="15">
         <v>4</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>3749000</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>14817.045000000002</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>25910.002</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>4991</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="14">
         <v>2019</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C25" s="14">
         <v>3</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6">
+      <c r="D25" s="9"/>
+      <c r="E25" s="6">
         <v>14453.206</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>25388.089</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>4636</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="15">
         <v>2019</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C26" s="15">
         <v>2</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4">
+      <c r="D26" s="10"/>
+      <c r="E26" s="4">
         <v>13882.996999999999</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>25556.91</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="4">
         <v>4947</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="14">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="14">
         <v>2019</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6">
+      <c r="D27" s="9"/>
+      <c r="E27" s="6">
         <v>14358.056</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>24568.580999999998</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>5355</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="15">
         <v>2018</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C28" s="15">
         <v>4</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>3773000</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>14902</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>24372.989000000001</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>4767</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="14">
         <v>2018</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C29" s="14">
         <v>3</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6">
+      <c r="D29" s="9"/>
+      <c r="E29" s="6">
         <v>14565</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>24205.563999999998</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>4508</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="15">
         <v>2018</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C30" s="15">
         <v>2</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4">
+      <c r="D30" s="10"/>
+      <c r="E30" s="4">
         <v>14462</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>23922.477999999999</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>4233</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="14">
         <v>2018</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C31" s="14">
         <v>1</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6">
+      <c r="D31" s="9"/>
+      <c r="E31" s="6">
         <v>13829</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>23904.996999999999</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>5180</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>12</v>
+      <c r="B33" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C33" s="12"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="C37" s="11"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G40" s="3"/>
+      <c r="B40" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5128738D-623C-414D-BB70-8B83D09F7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495AE1EF-C122-4936-A3F6-B66BE49D7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_39" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Fuente: Para carretero: SICT. Subsecretaría de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t xml:space="preserve">  Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
-  </si>
-  <si>
     <t>Movimiento de pasaje por medio de transporte</t>
   </si>
   <si>
@@ -71,25 +68,25 @@
     <t>Nota: Para el concepto Marítimo, La información relativa al sector marítimo pasó a ser responsabilidad de la Secretaría de Marina (SEMAR). Derivado de la entrada en vigor del DECRETO por el que se reforman,</t>
   </si>
   <si>
-    <t xml:space="preserve">  adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t xml:space="preserve">    Para ferroviario: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Para aéreo: AFAC. Agencia Federal de Aviación Civil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Para marítimo: SEMAR. Coordinación General de Puertos y Marina Mercante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adicionan y derogan diversas disposiciones de la Ley Orgánica de la Administración Pública Federal, de la Ley de Navegación y Comercio Marítimos y de la Ley de Puertos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> publicado en el Diario Oficial de la Federación el 7 de diciembre de 2020, el 7 de junio de 2021 la SICT transfirió las atribuciones de la Coordinación General de Puertos y Marina Mercante a la SEMAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -103,47 +100,50 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -249,9 +249,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -283,7 +280,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -329,7 +326,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -383,7 +380,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -391,28 +388,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -421,14 +418,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -603,41 +600,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AA41"/>
+  <dimension ref="B1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.19921875" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>0</v>
@@ -652,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>2024</v>
       </c>
@@ -660,8 +658,8 @@
         <v>3</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="17" t="s">
-        <v>16</v>
+      <c r="E5" s="16">
+        <v>12842.641</v>
       </c>
       <c r="F5" s="6">
         <v>29400.232</v>
@@ -674,7 +672,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>2024</v>
       </c>
@@ -683,7 +681,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="4">
-        <v>12352</v>
+        <v>12351.976000000001</v>
       </c>
       <c r="F6" s="4">
         <v>29338.95</v>
@@ -692,7 +690,7 @@
         <v>4412.5729999999994</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>2024</v>
       </c>
@@ -701,7 +699,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6">
-        <v>12093</v>
+        <v>12092.721000000001</v>
       </c>
       <c r="F7" s="6">
         <v>30028.284</v>
@@ -710,7 +708,7 @@
         <v>5513</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <v>2023</v>
       </c>
@@ -721,16 +719,16 @@
         <v>3784999</v>
       </c>
       <c r="E8" s="4">
-        <v>11923</v>
+        <v>11923.001</v>
       </c>
       <c r="F8" s="4">
-        <v>30149</v>
+        <v>30150.326000000001</v>
       </c>
       <c r="G8" s="4">
         <v>4051</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>2023</v>
       </c>
@@ -739,16 +737,16 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="6">
-        <v>11491</v>
+        <v>11491.823</v>
       </c>
       <c r="F9" s="6">
-        <v>30062</v>
+        <v>30061.687999999998</v>
       </c>
       <c r="G9" s="6">
         <v>3439</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <v>2023</v>
       </c>
@@ -757,16 +755,16 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="4">
-        <v>11131</v>
+        <v>11130.869999999999</v>
       </c>
       <c r="F10" s="4">
-        <v>29115</v>
+        <v>29115.157999999999</v>
       </c>
       <c r="G10" s="4">
         <v>3904</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>2023</v>
       </c>
@@ -775,7 +773,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="6">
-        <v>11293.484</v>
+        <v>11293.483999999999</v>
       </c>
       <c r="F11" s="6">
         <v>29036.904999999999</v>
@@ -784,7 +782,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <v>2022</v>
       </c>
@@ -804,7 +802,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>2022</v>
       </c>
@@ -822,7 +820,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <v>2022</v>
       </c>
@@ -840,7 +838,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>2022</v>
       </c>
@@ -849,7 +847,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6">
-        <v>8813.8080000000009</v>
+        <v>8813.8079999999991</v>
       </c>
       <c r="F15" s="6">
         <v>23485.47</v>
@@ -858,7 +856,7 @@
         <v>2943.7710000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
         <v>2021</v>
       </c>
@@ -878,7 +876,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>2021</v>
       </c>
@@ -896,7 +894,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <v>2021</v>
       </c>
@@ -914,7 +912,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>2021</v>
       </c>
@@ -932,7 +930,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>2020</v>
       </c>
@@ -952,7 +950,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>2020</v>
       </c>
@@ -970,7 +968,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
         <v>2020</v>
       </c>
@@ -988,7 +986,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>2020</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
         <v>2019</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>3749000</v>
       </c>
       <c r="E24" s="4">
-        <v>14817.045000000002</v>
+        <v>14817.044999999998</v>
       </c>
       <c r="F24" s="4">
         <v>25910.002</v>
@@ -1026,7 +1024,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>2019</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
         <v>2019</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>4947</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>2019</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
         <v>2018</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>3773000</v>
       </c>
       <c r="E28" s="4">
-        <v>14902</v>
+        <v>14902.000000000002</v>
       </c>
       <c r="F28" s="4">
         <v>24372.989000000001</v>
@@ -1100,7 +1098,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>2018</v>
       </c>
@@ -1109,7 +1107,7 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="6">
-        <v>14565</v>
+        <v>14565.000000000002</v>
       </c>
       <c r="F29" s="6">
         <v>24205.563999999998</v>
@@ -1118,7 +1116,7 @@
         <v>4508</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
         <v>2018</v>
       </c>
@@ -1127,7 +1125,7 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="4">
-        <v>14462</v>
+        <v>14461.999999999998</v>
       </c>
       <c r="F30" s="4">
         <v>23922.477999999999</v>
@@ -1136,7 +1134,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>2018</v>
       </c>
@@ -1145,7 +1143,7 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="6">
-        <v>13829</v>
+        <v>13828.999999999998</v>
       </c>
       <c r="F31" s="6">
         <v>23904.996999999999</v>
@@ -1154,60 +1152,60 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="16" t="s">
-        <v>13</v>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="16" t="s">
-        <v>14</v>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" s="3"/>
     </row>
   </sheetData>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495AE1EF-C122-4936-A3F6-B66BE49D7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF01E64-A9A7-4D84-B317-F91FC4D79B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -96,28 +96,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -134,17 +119,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="minor"/>
+      <color theme="0"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -208,110 +201,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -326,9 +280,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -349,6 +304,118 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -363,15 +430,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2021"/>
+        <filter val="2022"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E3284414-7784-42A7-B93C-31110510E934}" name="Trimestre" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E3284414-7784-42A7-B93C-31110510E934}" name="Trimestre" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,610 +682,611 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
         <v>2024</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>12842.641</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>29400.232</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>4134.469000000001</v>
       </c>
-      <c r="AA5" t="e">
+      <c r="AA5" s="1" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>12351.976000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>29338.95</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="12">
         <v>4412.5729999999994</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>12092.721000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>30028.284</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="9">
         <v>5513</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2023</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>3784999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="12">
         <v>11923.001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="12">
         <v>30150.326000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="12">
         <v>4051</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2023</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>3</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>11491.823</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>30061.687999999998</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="9">
         <v>3439</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2023</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>11130.869999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <v>29115.157999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="12">
         <v>3904</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2023</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>11293.483999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>29036.904999999999</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="9">
         <v>4827</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2022</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>3674002</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="12">
         <v>11326.767</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="12">
         <v>28941.035</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="12">
         <v>4162</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2022</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>10598.224</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <v>27659.324000000001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="9">
         <v>4817</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2022</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
         <v>10271.178</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="12">
         <v>26769.789000000001</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="12">
         <v>3334</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2022</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>8813.8079999999991</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <v>23485.47</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="9">
         <v>2943.7710000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
         <v>2021</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="12">
         <v>3147000</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="12">
         <v>9341.7420000000002</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="12">
         <v>24337.715</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="12">
         <v>2936</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
         <v>2021</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>7824.0640000000012</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="9">
         <v>21998.89</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="9">
         <v>2493</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="11">
         <v>2021</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="4">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <v>7267.3310000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="12">
         <v>20238.800999999999</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="12">
         <v>1958</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="16">
         <v>2021</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
         <v>5923.73</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="17">
         <v>13427.895</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="17">
         <v>1522</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2020</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>4</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="12">
         <v>2277000</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="12">
         <v>6811.7960000000003</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="12">
         <v>13898.36</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="12">
         <v>1315</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2020</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <v>5980.7389999999996</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <v>8730.8389999999999</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="9">
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2020</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="4">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
         <v>3855.326</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="12">
         <v>2178.7280000000001</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="12">
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2020</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="8">
         <v>1</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <v>13015.962</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <v>23271.69</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="9">
         <v>4611</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2019</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>4</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <v>3749000</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="12">
         <v>14817.044999999998</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="12">
         <v>25910.002</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="12">
         <v>4991</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2019</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="8">
         <v>3</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <v>14453.206</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="9">
         <v>25388.089</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="9">
         <v>4636</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2019</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="4">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
         <v>13882.996999999999</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="12">
         <v>25556.91</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="12">
         <v>4947</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="8">
         <v>1</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <v>14358.056</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="9">
         <v>24568.580999999998</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="9">
         <v>5355</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
         <v>2018</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="12">
         <v>3773000</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="12">
         <v>14902.000000000002</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="12">
         <v>24372.989000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="12">
         <v>4767</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="8">
         <v>2018</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="8">
         <v>3</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <v>14565.000000000002</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="9">
         <v>24205.563999999998</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="9">
         <v>4508</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="11">
         <v>2018</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="4">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
         <v>14461.999999999998</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="12">
         <v>23922.477999999999</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="12">
         <v>4233</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="8">
         <v>1</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="6">
+      <c r="E31" s="9">
         <v>13828.999999999998</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="9">
         <v>23904.996999999999</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="9">
         <v>5180</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="3"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF01E64-A9A7-4D84-B317-F91FC4D79B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91922FF6-0EE9-45CC-B8B1-8AAD600FCCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_39" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Carretero</t>
   </si>
@@ -86,7 +86,13 @@
     <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>ND No Disponible</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,62 +254,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -410,10 +369,60 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -430,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B4:G31" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B4:G32" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2021"/>
@@ -442,12 +451,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E3284414-7784-42A7-B93C-31110510E934}" name="Trimestre" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E3284414-7784-42A7-B93C-31110510E934}" name="Trimestre" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Carretero" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Ferroviario" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aéreo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Marítimo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AA41"/>
+  <dimension ref="B1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -728,562 +737,586 @@
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12">
+        <v>30699.671999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5011.8089999999975</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10">
         <v>12842.641</v>
       </c>
-      <c r="F5" s="9">
-        <v>29400.232</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F6" s="9">
+        <v>29399.330999999998</v>
+      </c>
+      <c r="G6" s="9">
         <v>4134.469000000001</v>
       </c>
-      <c r="AA5" s="1" t="e">
+      <c r="AA6" s="1" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <v>12351.976000000001</v>
       </c>
-      <c r="F6" s="12">
-        <v>29338.95</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F7" s="12">
+        <v>29337.592000000001</v>
+      </c>
+      <c r="G7" s="12">
         <v>4412.5729999999994</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>12092.721000000001</v>
       </c>
-      <c r="F7" s="9">
-        <v>30028.284</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F8" s="9">
+        <v>30027.201000000001</v>
+      </c>
+      <c r="G8" s="9">
         <v>5513</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2023</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>3784999</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>11923.001</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>30150.326000000001</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>4051</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
         <v>2023</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>11491.823</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>30061.687999999998</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>3439</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2023</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>11130.869999999999</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>29115.157999999999</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>3904</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2023</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>11293.483999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>29036.904999999999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>4827</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2022</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>3674002</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>11326.767</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>28941.035</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>4162</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2022</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>10598.224</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>27659.324000000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>4817</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
         <v>2022</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>10271.178</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>26769.789000000001</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>3334</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+      <c r="B16" s="8">
         <v>2022</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>8813.8079999999991</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>23485.47</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>2943.7710000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="11">
         <v>2021</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>3147000</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>9341.7420000000002</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>24337.715</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>2936</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>2021</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <v>7824.0640000000012</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>21998.89</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>2493</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2021</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
         <v>7267.3310000000001</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>20238.800999999999</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>1958</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="16">
         <v>2021</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C20" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
         <v>5923.73</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>13427.895</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>1522</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2020</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <v>4</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>2277000</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>6811.7960000000003</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>13898.36</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>1315</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2020</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
         <v>5980.7389999999996</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>8730.8389999999999</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2020</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
         <v>3855.326</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>2178.7280000000001</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2020</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
         <v>13015.962</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>23271.69</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>4611</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2019</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>4</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>3749000</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>14817.044999999998</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>25910.002</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>4991</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2019</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C26" s="8">
         <v>3</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
         <v>14453.206</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>25388.089</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>4636</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
         <v>2019</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>13882.996999999999</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>25556.91</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>4947</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
         <v>14358.056</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>24568.580999999998</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>5355</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="11">
         <v>2018</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <v>3773000</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>14902.000000000002</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>24372.989000000001</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>4767</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8">
         <v>2018</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
         <v>14565.000000000002</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>24205.563999999998</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>4508</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="11">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2018</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
         <v>14461.999999999998</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>23922.477999999999</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>4233</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
         <v>13828.999999999998</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>23904.996999999999</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>5180</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="14" t="s">
-        <v>11</v>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G41" s="15"/>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G43" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Multimodal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91922FF6-0EE9-45CC-B8B1-8AAD600FCCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF38D7-92C2-485C-B424-D8B8800D9449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_39" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -86,13 +86,7 @@
     <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>ND No Disponible</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AA43"/>
+  <dimension ref="B1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -744,8 +738,8 @@
         <v>4</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="18" t="s">
-        <v>17</v>
+      <c r="E5" s="18">
+        <v>14238.468000000001</v>
       </c>
       <c r="F5" s="12">
         <v>30699.671999999999</v>
@@ -1264,59 +1258,53 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="13" t="s">
-        <v>9</v>
+      <c r="B35" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="14" t="s">
-        <v>15</v>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="13" t="s">
-        <v>4</v>
+      <c r="B39" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="13"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G43" s="15"/>
+      <c r="G42" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF38D7-92C2-485C-B424-D8B8800D9449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48519526-F539-4267-A93A-B82A11219968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_39" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Carretero</t>
   </si>
@@ -86,7 +86,13 @@
     <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>ND No Disponible</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B4:G32" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B4:G33" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2021"/>
@@ -679,13 +685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AA42"/>
+  <dimension ref="B1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
@@ -697,20 +703,20 @@
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:27" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:27" ht="15" customHeight="1"/>
+    <row r="2" spans="2:27" ht="18">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:27">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:27">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -730,581 +736,605 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+    <row r="5" spans="2:27">
+      <c r="B5" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9">
+        <v>31090.3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5658.7169999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="11">
         <v>2024</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18">
+      <c r="D6" s="12"/>
+      <c r="E6" s="18">
         <v>14238.468000000001</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="12">
         <v>30699.671999999999</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G6" s="12">
         <v>5011.8089999999975</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+    <row r="7" spans="2:27">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10">
         <v>12842.641</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>29399.330999999998</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>4134.469000000001</v>
       </c>
-      <c r="AA6" s="1" t="e">
+      <c r="AA7" s="1" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:27">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>12351.976000000001</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>29337.592000000001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>4412.5729999999994</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+    <row r="9" spans="2:27">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>12092.721000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>30027.201000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>5513</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:27">
+      <c r="B10" s="11">
         <v>2023</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <v>3784999</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>11923.001</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>30150.326000000001</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>4051</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="2:27">
+      <c r="B11" s="8">
         <v>2023</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
         <v>11491.823</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>30061.687999999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>3439</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:27">
+      <c r="B12" s="11">
         <v>2023</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>11130.869999999999</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>29115.157999999999</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>3904</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="2:27">
+      <c r="B13" s="8">
         <v>2023</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>11293.483999999999</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>29036.904999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>4827</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:27">
+      <c r="B14" s="11">
         <v>2022</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="11">
         <v>4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>3674002</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>11326.767</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>28941.035</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>4162</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="2:27">
+      <c r="B15" s="8">
         <v>2022</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
         <v>10598.224</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>27659.324000000001</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>4817</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:27">
+      <c r="B16" s="11">
         <v>2022</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
         <v>10271.178</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>26769.789000000001</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>3334</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7">
+      <c r="B17" s="8">
         <v>2022</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>8813.8079999999991</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>23485.47</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>2943.7710000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="11">
+    <row r="18" spans="2:7">
+      <c r="B18" s="11">
         <v>2021</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="11">
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>3147000</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>9341.7420000000002</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F18" s="12">
         <v>24337.715</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>2936</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7">
+      <c r="B19" s="8">
         <v>2021</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
         <v>7824.0640000000012</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>21998.89</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>2493</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:7">
+      <c r="B20" s="11">
         <v>2021</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <v>7267.3310000000001</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>20238.800999999999</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>1958</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
+    <row r="21" spans="2:7">
+      <c r="B21" s="16">
         <v>2021</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C21" s="16">
         <v>1</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
         <v>5923.73</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>13427.895</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>1522</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="11">
         <v>2020</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>2277000</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>6811.7960000000003</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>13898.36</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>1315</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="8">
         <v>2020</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
         <v>5980.7389999999996</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>8730.8389999999999</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>907</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="11">
         <v>2020</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <v>3855.326</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>2178.7280000000001</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="8">
         <v>2020</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9">
         <v>13015.962</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>23271.69</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>4611</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="11">
         <v>2019</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C26" s="11">
         <v>4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>3749000</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>14817.044999999998</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>25910.002</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>4991</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C27" s="8">
         <v>3</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
         <v>14453.206</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>25388.089</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>4636</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="11">
         <v>2019</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C28" s="11">
         <v>2</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>13882.996999999999</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>25556.91</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>4947</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2019</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9">
         <v>14358.056</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>24568.580999999998</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>5355</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="11">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="11">
         <v>2018</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C30" s="11">
         <v>4</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <v>3773000</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E30" s="12">
         <v>14902.000000000002</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F30" s="12">
         <v>24372.989000000001</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G30" s="12">
         <v>4767</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="8">
         <v>2018</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <v>3</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
         <v>14565.000000000002</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>24205.563999999998</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>4508</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="11">
         <v>2018</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C32" s="11">
         <v>2</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
         <v>14461.999999999998</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>23922.477999999999</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>4233</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="8">
         <v>2018</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
         <v>13828.999999999998</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>23904.996999999999</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>5180</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="13" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="14" t="s">
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="14" t="s">
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="14" t="s">
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G42" s="15"/>
+    <row r="44" spans="2:7">
+      <c r="G44" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48519526-F539-4267-A93A-B82A11219968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9DF11C-D61F-4F8B-82B2-E44CCBFB1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_39" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carretero</t>
   </si>
@@ -86,13 +86,7 @@
     <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>ND No Disponible</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -685,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AA44"/>
+  <dimension ref="B1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -744,8 +738,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
+      <c r="E5" s="10">
+        <v>13551.582</v>
       </c>
       <c r="F5" s="9">
         <v>31090.3</v>
@@ -761,7 +755,9 @@
       <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>3824000</v>
+      </c>
       <c r="E6" s="18">
         <v>14238.468000000001</v>
       </c>
@@ -1305,36 +1301,30 @@
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="14" t="s">
-        <v>18</v>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="13" t="s">
-        <v>4</v>
+      <c r="B40" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="G44" s="15"/>
+      <c r="G43" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Pasajeros_multimodal.xlsx
+++ b/Pasajeros_multimodal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Multimodal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9DF11C-D61F-4F8B-82B2-E44CCBFB1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C077DC-682A-4E1D-A6B7-6D653A75A17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t xml:space="preserve"> Para el total de Transporte de los trimestres en curso, La cifra sólo considera información disponible.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -351,6 +351,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -374,13 +381,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -433,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B4:G33" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B4:G34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G34" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2021"/>
@@ -679,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:AA43"/>
+  <dimension ref="B1:AA44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -731,600 +731,616 @@
       </c>
     </row>
     <row r="5" spans="2:27">
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>2025</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="12">
+        <v>30090.525000000001</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4851.7659999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10">
         <v>13551.582</v>
       </c>
-      <c r="F5" s="9">
-        <v>31090.3</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5658.7169999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27">
-      <c r="B6" s="11">
+      <c r="F6" s="9">
+        <v>31090.814999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5832.5889999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="11">
         <v>2024</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <v>3824000</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E7" s="18">
         <v>14238.468000000001</v>
       </c>
-      <c r="F6" s="12">
-        <v>30699.671999999999</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F7" s="12">
+        <v>30717.115000000002</v>
+      </c>
+      <c r="G7" s="12">
         <v>5011.8089999999975</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="8">
+    <row r="8" spans="2:27">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
         <v>12842.641</v>
       </c>
-      <c r="F7" s="9">
-        <v>29399.330999999998</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F8" s="9">
+        <v>29413.201000000001</v>
+      </c>
+      <c r="G8" s="9">
         <v>4134.469000000001</v>
       </c>
-      <c r="AA7" s="1" t="e">
+      <c r="AA8" s="1" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="11">
+    <row r="9" spans="2:27">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
         <v>12351.976000000001</v>
       </c>
-      <c r="F8" s="12">
-        <v>29337.592000000001</v>
-      </c>
-      <c r="G8" s="12">
-        <v>4412.5729999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="8">
+      <c r="F9" s="12">
+        <v>29343.495999999999</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4587.7340000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>12092.721000000001</v>
       </c>
-      <c r="F9" s="9">
-        <v>30027.201000000001</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5513</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="11">
+      <c r="F10" s="9">
+        <v>30033.422999999999</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5710.9129999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="11">
         <v>2023</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>3784999</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>11923.001</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>30150.326000000001</v>
       </c>
-      <c r="G10" s="12">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="8">
+      <c r="G11" s="12">
+        <v>7188.380000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="8">
         <v>2023</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>11491.823</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>30061.687999999998</v>
       </c>
-      <c r="G11" s="9">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="11">
+      <c r="G12" s="9">
+        <v>3659.0169999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="11">
         <v>2023</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>11130.869999999999</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>29115.157999999999</v>
       </c>
-      <c r="G12" s="12">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="8">
+      <c r="G13" s="12">
+        <v>4118.0600000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="8">
         <v>2023</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>11293.483999999999</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>29036.904999999999</v>
       </c>
-      <c r="G13" s="9">
-        <v>4827</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="11">
+      <c r="G14" s="9">
+        <v>5035.4430000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="11">
         <v>2022</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>3674002</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>11326.767</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>28941.035</v>
       </c>
-      <c r="G14" s="12">
-        <v>4162</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="8">
+      <c r="G15" s="12">
+        <v>4355.4940000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="8">
         <v>2022</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>10598.224</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>27659.324000000001</v>
       </c>
-      <c r="G15" s="9">
-        <v>4817</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="B16" s="11">
+      <c r="G16" s="9">
+        <v>3728.7249999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="11">
         <v>2022</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>10271.178</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>26769.789000000001</v>
       </c>
-      <c r="G16" s="12">
-        <v>3334</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8">
+      <c r="G17" s="12">
+        <v>4203.165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="8">
         <v>2022</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <v>8813.8079999999991</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>23485.47</v>
       </c>
-      <c r="G17" s="9">
-        <v>2943.7710000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="11">
+      <c r="G18" s="9">
+        <v>3818.67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="11">
         <v>2021</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>4</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>3147000</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>9341.7420000000002</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>24337.715</v>
       </c>
-      <c r="G18" s="12">
-        <v>2936</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="8">
+      <c r="G19" s="12">
+        <v>3470.6319999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="8">
         <v>2021</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>7824.0640000000012</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>21998.89</v>
       </c>
-      <c r="G19" s="9">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="11">
+      <c r="G20" s="9">
+        <v>2495.0650000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="11">
         <v>2021</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
         <v>7267.3310000000001</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>20238.800999999999</v>
       </c>
-      <c r="G20" s="12">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="16">
+      <c r="G21" s="12">
+        <v>1962.931</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="16">
         <v>2021</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
         <v>5923.73</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>13427.895</v>
       </c>
-      <c r="G21" s="17">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="11">
+      <c r="G22" s="17">
+        <v>1521.8969999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="11">
         <v>2020</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>4</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>2277000</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>6811.7960000000003</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>13898.36</v>
       </c>
-      <c r="G22" s="12">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="8">
+      <c r="G23" s="12">
+        <v>1314.741</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="8">
         <v>2020</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
         <v>5980.7389999999996</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>8730.8389999999999</v>
       </c>
-      <c r="G23" s="9">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="11">
+      <c r="G24" s="9">
+        <v>907.14300000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="11">
         <v>2020</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
         <v>3855.326</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>2178.7280000000001</v>
       </c>
-      <c r="G24" s="12">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="8">
+      <c r="G25" s="12">
+        <v>281.64500000000044</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="8">
         <v>2020</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
         <v>13015.962</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>23271.69</v>
       </c>
-      <c r="G25" s="9">
-        <v>4611</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="11">
+      <c r="G26" s="9">
+        <v>4610.6729999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="11">
         <v>2019</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>4</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>3749000</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>14817.044999999998</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>25910.002</v>
       </c>
-      <c r="G26" s="12">
-        <v>4991</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="8">
+      <c r="G27" s="12">
+        <v>4991.3510000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C28" s="8">
         <v>3</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
         <v>14453.206</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>25388.089</v>
       </c>
-      <c r="G27" s="9">
-        <v>4636</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="11">
+      <c r="G28" s="9">
+        <v>4636.2619999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="11">
         <v>2019</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>2</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
         <v>13882.996999999999</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>25556.91</v>
       </c>
-      <c r="G28" s="12">
-        <v>4947</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="8">
+      <c r="G29" s="12">
+        <v>4846.8810000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="8">
         <v>2019</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
         <v>14358.056</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>24568.580999999998</v>
       </c>
-      <c r="G29" s="9">
-        <v>5355</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="11">
+      <c r="G30" s="9">
+        <v>5454.2380000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="11">
         <v>2018</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="11">
         <v>4</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>3773000</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>14902.000000000002</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>24372.989000000001</v>
       </c>
-      <c r="G30" s="12">
-        <v>4767</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="8">
+      <c r="G31" s="12">
+        <v>4767.9639999999981</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="8">
         <v>2018</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <v>3</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
         <v>14565.000000000002</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>24205.563999999998</v>
       </c>
-      <c r="G31" s="9">
-        <v>4508</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="11">
+      <c r="G32" s="9">
+        <v>4512.9549999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="11">
         <v>2018</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C33" s="11">
         <v>2</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12">
         <v>14461.999999999998</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="12">
         <v>23922.477999999999</v>
       </c>
-      <c r="G32" s="12">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="8">
+      <c r="G33" s="12">
+        <v>4235.8940000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="8">
         <v>2018</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9">
         <v>13828.999999999998</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>23904.996999999999</v>
       </c>
-      <c r="G33" s="9">
-        <v>5180</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="13"/>
+      <c r="G34" s="9">
+        <v>5179.875</v>
+      </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="14"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="13" t="s">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
-      <c r="G43" s="15"/>
+    <row r="44" spans="2:7">
+      <c r="G44" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
